--- a/WebDevelopmentSiteBoard.xlsx
+++ b/WebDevelopmentSiteBoard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Deliverable</t>
   </si>
   <si>
-    <t>Client Sign-in</t>
-  </si>
-  <si>
-    <t>Coder Sign-in</t>
-  </si>
-  <si>
     <t>Project Descriptions</t>
   </si>
   <si>
@@ -45,6 +39,15 @@
   </si>
   <si>
     <t>Release</t>
+  </si>
+  <si>
+    <t>Client/Coder Sign-in</t>
+  </si>
+  <si>
+    <t>Client Registration</t>
+  </si>
+  <si>
+    <t>Coder Registration</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,28 +415,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
